--- a/Test/UnitTest/srcTest/dataframe.xlsx
+++ b/Test/UnitTest/srcTest/dataframe.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -111,8 +112,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -720,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -773,4 +777,649 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="35" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>"col" &amp;B$1 &amp; "row" &amp;$A2</f>
+        <v>col2row2</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>"col" &amp;C$1 &amp; "row" &amp;$A2</f>
+        <v>col3row2</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>"col" &amp;D$1 &amp; "row" &amp;$A2</f>
+        <v>col4row2</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f t="shared" ref="E2:L13" si="0">"col" &amp;E$1 &amp; "row" &amp;$A2</f>
+        <v>col5row2</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col6row2</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col7row2</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col8row2</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col9row2</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col10row2</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col11row2</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col12row2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>"col" &amp;B$1 &amp; "row" &amp;$A3</f>
+        <v>col2row3</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:D13" si="1">"col" &amp;C$1 &amp; "row" &amp;$A3</f>
+        <v>col3row3</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col4row3</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col5row3</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col6row3</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col7row3</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col8row3</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col9row3</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col10row3</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col11row3</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col12row3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f t="shared" ref="B4:B13" si="2">"col" &amp;B$1 &amp; "row" &amp;$A4</f>
+        <v>col2row4</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col3row4</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col4row4</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col5row4</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col6row4</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col7row4</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col8row4</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col9row4</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col10row4</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col11row4</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col12row4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>col2row5</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col3row5</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col4row5</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col5row5</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col6row5</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col7row5</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col8row5</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col9row5</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col10row5</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col11row5</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col12row5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>col2row6</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col3row6</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col4row6</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col5row6</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col6row6</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col7row6</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col8row6</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col9row6</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col10row6</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col11row6</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col12row6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>col2row7</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col3row7</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col4row7</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col5row7</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col6row7</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col7row7</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col8row7</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col9row7</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col10row7</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col11row7</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col12row7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>col2row8</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col3row8</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col4row8</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col5row8</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col6row8</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col7row8</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col8row8</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col9row8</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col10row8</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col11row8</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col12row8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>col2row9</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col3row9</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col4row9</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col5row9</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col6row9</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col7row9</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col8row9</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col9row9</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col10row9</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col11row9</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col12row9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>col2row10</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col3row10</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col4row10</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col5row10</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col6row10</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col7row10</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col8row10</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col9row10</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col10row10</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col11row10</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col12row10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>col2row11</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col3row11</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col4row11</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col5row11</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col6row11</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col7row11</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col8row11</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col9row11</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col10row11</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col11row11</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col12row11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>col2row12</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col3row12</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col4row12</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col5row12</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col6row12</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col7row12</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col8row12</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col9row12</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col10row12</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col11row12</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col12row12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>col2row13</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col3row13</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>col4row13</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col5row13</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col6row13</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col7row13</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col8row13</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col9row13</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col10row13</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col11row13</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>col12row13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test/UnitTest/srcTest/dataframe.xlsx
+++ b/Test/UnitTest/srcTest/dataframe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>dron</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>col3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -112,11 +118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -724,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,8 +749,8 @@
       </c>
     </row>
     <row r="2" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -756,8 +763,8 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>4</v>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F3">
         <v>5.0999999999999996</v>
@@ -783,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Test/UnitTest/srcTest/dataframe.xlsx
+++ b/Test/UnitTest/srcTest/dataframe.xlsx
@@ -774,7 +774,7 @@
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>7</v>
       </c>
       <c r="F4">

--- a/Test/UnitTest/srcTest/dataframe.xlsx
+++ b/Test/UnitTest/srcTest/dataframe.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
@@ -17,78 +17,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
-  <si>
-    <t>dron</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>sdds</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>asdas</t>
-  </si>
-  <si>
-    <t>rrg</t>
-  </si>
-  <si>
-    <t>g4</t>
-  </si>
-  <si>
-    <t>wer</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>a7</t>
-  </si>
-  <si>
-    <t>ыуаа</t>
-  </si>
-  <si>
-    <t>ыва</t>
-  </si>
-  <si>
-    <t>ывапр</t>
-  </si>
-  <si>
-    <t>р</t>
-  </si>
-  <si>
-    <t>col1</t>
-  </si>
-  <si>
-    <t>col2</t>
-  </si>
-  <si>
-    <t>col3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
+  <si>
+    <t xml:space="preserve">dron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rrg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ыуаа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ыва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ывапр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">р</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3we</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wer1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3wer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34wr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +135,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -131,11 +150,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -364,7 +383,7 @@
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
-          <a:sp3d>
+          <a:sp3d prstMaterial="warmMatte">
             <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
@@ -427,7 +446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -541,13 +560,211 @@
         <v>asdaswer</v>
       </c>
     </row>
+    <row r="16">
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -728,7 +945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="D1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -787,7 +1004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
